--- a/Project- exercises.xlsx
+++ b/Project- exercises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bced3bb507f8fc99/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fla_a\OneDrive\Área de Trabalho\example of work(CEWIL)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{3F97D6E6-1B24-4C1C-AA74-F23D7B9A0F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{561E351F-81F2-4AB8-B603-EC57DCC0278B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659E5D3-9DAC-4D81-A0DA-255864BB7562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A58E175-3B15-4371-9CEC-639E24B676A7}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="B62" sqref="B62:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,12 +1310,8 @@
       <c r="A62" s="2">
         <v>44334</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>3324</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
